--- a/EDA_Entrega/data/correlation_age_high_blood_pressure.xlsx
+++ b/EDA_Entrega/data/correlation_age_high_blood_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6183284409809985</v>
+        <v>-0.6183284409810327</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-15788143.23536571</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1396068715.615702</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6183284377727488</v>
+        <v>-0.6183284377727805</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-15788.14323711002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1396068.699473583</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.08049946150289547</v>
+        <v>-0.08049946150290335</v>
       </c>
       <c r="E4" t="n">
+        <v>2.226429548671726e-58</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.713744477454495</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>227.8711238566595</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.02039391798015372</v>
+        <v>0.02039391798015672</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000165400170025908</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0001190658455038204</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.04642055997770135</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.03222377238721407</v>
+        <v>0.03222377238721638</v>
       </c>
       <c r="E6" t="n">
+        <v>2.616501121364275e-09</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0004541006196346988</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1751605101444744</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1371200998841773</v>
+        <v>-0.1371200998841826</v>
       </c>
       <c r="E7" t="n">
+        <v>4.521197738451793e-146</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.003966821435089083</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.23348783636283</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.002918544012430607</v>
+        <v>0.002918544012430747</v>
       </c>
       <c r="E8" t="n">
+        <v>0.585785977136892</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.007237270612261607</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>78.89776391723098</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.175634780717141</v>
+        <v>-0.1756347807171476</v>
       </c>
       <c r="E9" t="n">
+        <v>5.299311915740239e-239</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2408070329008871</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>37.40307513147255</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.05693877566190664</v>
+        <v>-0.05693877566190271</v>
       </c>
       <c r="E10" t="n">
+        <v>6.526428559746515e-26</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.007020785003168552</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.498586767150063</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.06759349113548913</v>
+        <v>0.06759349113549405</v>
       </c>
       <c r="E11" t="n">
+        <v>7.431973265462391e-36</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001290450731979127</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4702641534624643</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.01422568063850638</v>
+        <v>-0.01422568063850592</v>
       </c>
       <c r="E12" t="n">
+        <v>0.008605938958161077</v>
+      </c>
+      <c r="F12" t="n">
         <v>-0.001943577583342533</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.95639138406743</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.05240262603301281</v>
+        <v>-0.05240262603301673</v>
       </c>
       <c r="E13" t="n">
+        <v>1.779345233686866e-22</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.06593319768562549</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>27.2161205790528</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.04253823819268863</v>
+        <v>0.04253823819268975</v>
       </c>
       <c r="E14" t="n">
+        <v>3.856826017999541e-15</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.002679343865130955</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.7228936941669843</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0954206910635193</v>
+        <v>0.09542069106352798</v>
       </c>
       <c r="E15" t="n">
+        <v>3.298075358253399e-71</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.002399361910533209</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3219365260878541</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1745677254943978</v>
+        <v>0.1745677254943995</v>
       </c>
       <c r="E16" t="n">
+        <v>7.329113460361245e-237</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.09833294963169639</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>10.46485437712577</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.003150501513925574</v>
+        <v>0.003150501513925773</v>
       </c>
       <c r="E17" t="n">
+        <v>0.556400203909975</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0001104951791013959</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.277946507693695</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.06775688903817581</v>
+        <v>-0.06775688903817531</v>
       </c>
       <c r="E18" t="n">
+        <v>8.756219390665638e-37</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.2582110497965441</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>210.1267339377829</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02507460905976045</v>
+        <v>-0.02507460905975829</v>
       </c>
       <c r="E19" t="n">
+        <v>2.801071905642459e-06</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.006857397841343696</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.5388091602856</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.0436364589306704</v>
+        <v>-0.04363645893066604</v>
       </c>
       <c r="E20" t="n">
+        <v>3.574618858501074e-16</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.5163138326997</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>397.3804074115509</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1186651289847258</v>
+        <v>0.1186651289847359</v>
       </c>
       <c r="E21" t="n">
+        <v>1.835635144966567e-109</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.02811298390203038</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.15973345862673</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.04024935064349554</v>
+        <v>0.04024935064349424</v>
       </c>
       <c r="E22" t="n">
+        <v>5.364325327610476e-14</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.001668700997529266</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.8010926390322937</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02102122898215441</v>
+        <v>0.02102122898215582</v>
       </c>
       <c r="E23" t="n">
+        <v>8.611655690880927e-05</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.01702815650696207</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2.938816322172517</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2119215338635946</v>
+        <v>0.211921533863595</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.008509540705544782</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.5119826044067652</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3303864077569223</v>
+        <v>-0.3303864077569178</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.07034605800248289</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.282478025289373</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.068969866343793</v>
+        <v>0.06896986634379107</v>
       </c>
       <c r="E26" t="n">
+        <v>2.905251742167686e-37</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01403245545710527</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>2.184710136815115</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.02945868460562526</v>
+        <v>-0.02945868460562212</v>
       </c>
       <c r="E27" t="n">
+        <v>3.8511001695012e-08</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.4265585192607238</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>173.2182091494327</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.049343755418804e-05</v>
+        <v>8.049343755372638e-05</v>
       </c>
       <c r="E28" t="n">
+        <v>0.9880166908290559</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.0002960749514269448</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>106.4574965679553</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.06429557845552356</v>
+        <v>-0.06429557845552583</v>
       </c>
       <c r="E29" t="n">
+        <v>9.917398443555916e-33</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.02495663330243093</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>43.80047603230563</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.06088968337069868</v>
+        <v>0.06088968337069882</v>
       </c>
       <c r="E30" t="n">
+        <v>4.950412966659286e-30</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.1180723439414366</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>50.25009832400952</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.09118990317735898</v>
+        <v>-0.09118990317736329</v>
       </c>
       <c r="E31" t="n">
+        <v>2.944201295533239e-64</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01223187248515268</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>14.64052709472124</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.06969935815305518</v>
+        <v>0.0696993581530559</v>
       </c>
       <c r="E32" t="n">
+        <v>9.57448312285311e-39</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.002734065574375938</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>4.017673199554581</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.07904276556060277</v>
+        <v>-0.07904276556059803</v>
       </c>
       <c r="E33" t="n">
+        <v>3.006483662549761e-48</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.2636630894477932</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>123.6594989068054</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1383098187985192</v>
+        <v>-0.138309818798518</v>
       </c>
       <c r="E34" t="n">
+        <v>2.37504353741503e-145</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1183166281218072</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>38.41828952394599</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1145539960351165</v>
+        <v>0.1145539960351248</v>
       </c>
       <c r="E35" t="n">
+        <v>3.27985525817956e-100</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.02276575645448898</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.0940966575948</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.08911094472192771</v>
+        <v>-0.08911094472192607</v>
       </c>
       <c r="E36" t="n">
+        <v>5.287064533031297e-61</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.0102948777330524</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.51906893356414</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1783984112393784</v>
+        <v>0.1783984112393877</v>
       </c>
       <c r="E37" t="n">
+        <v>6.309253329843849e-243</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.1063248540555132</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.27461629337895</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1211042897641366</v>
+        <v>0.1211042897641329</v>
       </c>
       <c r="E38" t="n">
+        <v>1.185452277876707e-111</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.02718407744261724</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.633042294966022</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.005029823040022068</v>
+        <v>0.00502982304002204</v>
       </c>
       <c r="E39" t="n">
+        <v>0.3536278975369582</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.0004784645050677211</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.16937043643049</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.02506156311420922</v>
+        <v>0.02506156311420818</v>
       </c>
       <c r="E40" t="n">
+        <v>2.834607454269271e-06</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.006260341443687474</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.1043801754292</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.07887084382910627</v>
+        <v>0.07887084382910599</v>
       </c>
       <c r="E41" t="n">
+        <v>3.321684003913957e-48</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.07198710825741253</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>52.18861245792133</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1107064581588148</v>
+        <v>0.1107064581588153</v>
       </c>
       <c r="E42" t="n">
+        <v>4.505781602593337e-93</v>
+      </c>
+      <c r="F42" t="n">
         <v>9.266437719625332</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-379.1975349349098</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01748443911587874</v>
+        <v>0.01748443911587924</v>
       </c>
       <c r="E43" t="n">
+        <v>0.001261605523984595</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.003887102924597496</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.58380250214106</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.12236063154482</v>
+        <v>-0.1223606315448127</v>
       </c>
       <c r="E44" t="n">
+        <v>1.904810665133619e-114</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.7564065640289329</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>280.7134669428991</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.170539370193286</v>
+        <v>-0.1705393701932974</v>
       </c>
       <c r="E45" t="n">
+        <v>5.61810167701462e-222</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.007879306531241416</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.055425799963731</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.08585081498497403</v>
+        <v>0.08585081498496464</v>
       </c>
       <c r="E46" t="n">
+        <v>4.483267815234318e-57</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.01102576020333884</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.11699342697029</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.05895595393103056</v>
+        <v>-0.05895595393103152</v>
       </c>
       <c r="E47" t="n">
+        <v>3.042026458703027e-28</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.5564372677786806</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>185.5116515989439</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1577843768758185</v>
+        <v>-0.1577843768757924</v>
       </c>
       <c r="E48" t="n">
+        <v>2.412714774265635e-193</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.006475390077225984</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.296321069731331</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.03087220342948934</v>
+        <v>-0.03087220342948781</v>
       </c>
       <c r="E49" t="n">
+        <v>1.169193709726944e-08</v>
+      </c>
+      <c r="F49" t="n">
         <v>-0.006336654917726594</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>7.090947145635047</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.01961641054440021</v>
+        <v>0.01961641054439946</v>
       </c>
       <c r="E50" t="n">
+        <v>0.0002626388896504131</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.01074587460098274</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>1.132006185749127</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1248468853096522</v>
+        <v>0.1248468853096528</v>
       </c>
       <c r="E51" t="n">
+        <v>3.004878137234825e-120</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1563080404868474</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>20.74388443482552</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1786709607936626</v>
+        <v>-0.1786709607936625</v>
       </c>
       <c r="E52" t="n">
+        <v>2.236669377174672e-247</v>
+      </c>
+      <c r="F52" t="n">
         <v>-228.9181977422908</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>63358.01222614002</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02031721524129763</v>
+        <v>0.02031721524129971</v>
       </c>
       <c r="E53" t="n">
+        <v>0.0001508118443976413</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.00726435299716625</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>3.313160479669638</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.01910789911900072</v>
+        <v>-0.01910789911900251</v>
       </c>
       <c r="E54" t="n">
+        <v>0.0003650858329691663</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.765918929354253</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>601.3063999252024</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03600360849481186</v>
+        <v>0.03600360849481549</v>
       </c>
       <c r="E55" t="n">
+        <v>1.852949960613482e-11</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.1626544711440386</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-4.178454422176556</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1054685692583709</v>
+        <v>0.105468569258383</v>
       </c>
       <c r="E56" t="n">
+        <v>1.293850578669451e-86</v>
+      </c>
+      <c r="F56" t="n">
         <v>12.41986841719902</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>854.2573892138953</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.1991843196021792</v>
+        <v>-0.1991843196021808</v>
       </c>
       <c r="E57" t="n">
+        <v>3.732494519399087e-308</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.7334169886506083</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>154.2095666066552</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.02781081777614942</v>
+        <v>-0.02781081777614968</v>
       </c>
       <c r="E58" t="n">
+        <v>1.050874590550516e-05</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.00140687955843162</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.025065933347037</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.05168497458952401</v>
+        <v>0.05168497458952331</v>
       </c>
       <c r="E59" t="n">
+        <v>4.333262590857476e-17</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.02409167059725699</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>10.79913409565757</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1314839005327782</v>
+        <v>-0.1314839005327701</v>
       </c>
       <c r="E60" t="n">
+        <v>6.839539051878547e-116</v>
+      </c>
+      <c r="F60" t="n">
         <v>-121.806647396568</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>44220.79569568078</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.002473122040170363</v>
+        <v>0.00247312204017036</v>
       </c>
       <c r="E61" t="n">
+        <v>0.6682528446317908</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.01613374228506419</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>219.5618370830061</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.02507976484555862</v>
+        <v>0.02507976484555825</v>
       </c>
       <c r="E62" t="n">
+        <v>6.655147965647264e-06</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001263482871886522</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.04071853191160851</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.03082287027846475</v>
+        <v>0.0308228702784641</v>
       </c>
       <c r="E63" t="n">
+        <v>3.100357375491208e-08</v>
+      </c>
+      <c r="F63" t="n">
         <v>9.007207461880412e-05</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02918337367715638</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.0007465830921109485</v>
+        <v>-0.0007465830921108882</v>
       </c>
       <c r="E64" t="n">
+        <v>0.8933616844094893</v>
+      </c>
+      <c r="F64" t="n">
         <v>-1.847092998502242e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.007307387448354213</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.07952379020932054</v>
+        <v>0.0795237902093209</v>
       </c>
       <c r="E65" t="n">
+        <v>2.089427948454541e-46</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001307441909071171</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1381496632655487</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.008817071057933968</v>
+        <v>0.008817071057933923</v>
       </c>
       <c r="E66" t="n">
+        <v>0.1133832381299565</v>
+      </c>
+      <c r="F66" t="n">
         <v>2.040068016773165e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.001559023847094015</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.07590270098409155</v>
+        <v>0.07590270098409359</v>
       </c>
       <c r="E67" t="n">
+        <v>2.066569827513798e-42</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001206405387536255</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1324779128137656</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.08771028210318196</v>
+        <v>0.08771028210318178</v>
       </c>
       <c r="E68" t="n">
+        <v>4.199960054831027e-56</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001209411308918626</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.1076860789602936</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.08343765523185989</v>
+        <v>0.0834376552318585</v>
       </c>
       <c r="E69" t="n">
+        <v>6.445859037546123e-51</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001101698899278475</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.1055960036614944</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1084473805616202</v>
+        <v>0.1084473805616209</v>
       </c>
       <c r="E70" t="n">
+        <v>5.991398550550862e-85</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001252898722733184</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001183911411457953</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.004469338578347033</v>
+        <v>0.004469338578346959</v>
       </c>
       <c r="E71" t="n">
+        <v>0.4177719188945249</v>
+      </c>
+      <c r="F71" t="n">
         <v>5.462147163994893e-05</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.7039603519132023</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.03943131031908258</v>
+        <v>-0.03943131031908282</v>
       </c>
       <c r="E72" t="n">
+        <v>8.573654245078818e-13</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0003647090362604929</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1873045229385278</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.04058676989144853</v>
+        <v>-0.04058676989144946</v>
       </c>
       <c r="E73" t="n">
+        <v>1.820006524591115e-13</v>
+      </c>
+      <c r="F73" t="n">
         <v>-5.430127122189369e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01239398738982401</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.0004657126073017664</v>
+        <v>-0.0004657126073019484</v>
       </c>
       <c r="E74" t="n">
+        <v>0.9327118080020865</v>
+      </c>
+      <c r="F74" t="n">
         <v>-3.092562936991238e-06</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.9357654167030167</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.002787756512132036</v>
+        <v>-0.002787756512132092</v>
       </c>
       <c r="E75" t="n">
+        <v>0.6132424366945534</v>
+      </c>
+      <c r="F75" t="n">
         <v>-2.161857261789138e-05</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.956361746964551</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.1016392265745028</v>
+        <v>0.101639226574505</v>
       </c>
       <c r="E76" t="n">
+        <v>3.214771420238571e-76</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.0003716260507990765</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.01281918812565451</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.03710708058184572</v>
+        <v>-0.03710708058184707</v>
       </c>
       <c r="E77" t="n">
+        <v>2.188556418873318e-11</v>
+      </c>
+      <c r="F77" t="n">
         <v>-0.001300336060865591</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.2420193690509903</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.05045666989822353</v>
+        <v>-0.05045666989822409</v>
       </c>
       <c r="E78" t="n">
+        <v>2.811760144274124e-16</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001309672246196698</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03585481332925818</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.1921633778256006</v>
+        <v>-0.1921633778256042</v>
       </c>
       <c r="E79" t="n">
+        <v>7.18016497336316e-267</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.003588857741622944</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.5811029437292182</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.09891143483180642</v>
+        <v>-0.09891143483180598</v>
       </c>
       <c r="E80" t="n">
+        <v>1.750935074017726e-71</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002272306995826217</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.4957555501427853</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.03862522850789381</v>
+        <v>-0.03862522850789518</v>
       </c>
       <c r="E81" t="n">
+        <v>3.593998293017208e-12</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0002437416164374278</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.04952509389171251</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1858767200588416</v>
+        <v>-0.1858767200588415</v>
       </c>
       <c r="E82" t="n">
+        <v>1.438410068269261e-250</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.008435773820566204</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.529535100145753</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.001910938505838332</v>
+        <v>-0.001910938505838568</v>
       </c>
       <c r="E83" t="n">
+        <v>0.7308674192829054</v>
+      </c>
+      <c r="F83" t="n">
         <v>-2.166491523437426e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02024842069834124</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.01876228495501436</v>
+        <v>-0.01876228495501428</v>
       </c>
       <c r="E84" t="n">
+        <v>0.0007313874450601729</v>
+      </c>
+      <c r="F84" t="n">
         <v>-0.0001210191543611944</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>0.02430165376182758</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3445421340463983</v>
+        <v>-0.3445421340463786</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002245602988558016</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2201530650622767</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.1132806370612098</v>
+        <v>-0.1132806370612127</v>
       </c>
       <c r="E86" t="n">
+        <v>6.256165923525814e-93</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.003480079057904695</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6785772144608317</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.19617829158404</v>
+        <v>-0.196178291584041</v>
       </c>
       <c r="E87" t="n">
+        <v>1.981486220138716e-279</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01157637678772013</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.181398452670864</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1280819327844961</v>
+        <v>-0.1280819327844949</v>
       </c>
       <c r="E88" t="n">
+        <v>1.442682497193083e-118</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001405385597370902</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.188108956892943</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.0951037425925559</v>
+        <v>-0.0951037425925621</v>
       </c>
       <c r="E89" t="n">
+        <v>1.895979067353128e-67</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0004537696539409113</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.09976472912867215</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.02625781402470678</v>
+        <v>0.02625781402470893</v>
       </c>
       <c r="E90" t="n">
+        <v>1.745430855130374e-06</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0002850942180133013</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2241189536460098</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.02716668914945016</v>
+        <v>-0.02716668914945181</v>
       </c>
       <c r="E91" t="n">
+        <v>7.559583369997176e-07</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0003466130731449035</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.7087902319704866</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1578403967191699</v>
+        <v>-0.1578403967191764</v>
       </c>
       <c r="E92" t="n">
+        <v>7.713505745977679e-184</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.001969092469647873</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8339083556550027</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.07746849062843718</v>
+        <v>-0.07746849062843704</v>
       </c>
       <c r="E93" t="n">
+        <v>3.768486753884133e-45</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.00122366094498153</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7373483971678227</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.1126215634291781</v>
+        <v>0.1126215634291756</v>
       </c>
       <c r="E94" t="n">
+        <v>1.618482190455746e-91</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002788449575177294</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.0166226964295735</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1046235834502972</v>
+        <v>0.1046235834502954</v>
       </c>
       <c r="E95" t="n">
+        <v>3.577007229898268e-79</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0002084394339964529</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01497952087719398</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.05956958236893021</v>
+        <v>0.05956958236892949</v>
       </c>
       <c r="E96" t="n">
+        <v>9.460626901028385e-27</v>
+      </c>
+      <c r="F96" t="n">
         <v>3.212877821286446e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.00552540769467926</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.008809702917064658</v>
+        <v>0.008809702917064195</v>
       </c>
       <c r="E97" t="n">
+        <v>0.1924281041465566</v>
+      </c>
+      <c r="F97" t="n">
         <v>0.0008250487987478724</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>5.808345332455939</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.09746812965115055</v>
+        <v>0.09746812965115072</v>
       </c>
       <c r="E98" t="n">
+        <v>9.137349832096562e-50</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.1683531226658986</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>44.61042288546035</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.05991321170231151</v>
+        <v>-0.05991321170231536</v>
       </c>
       <c r="E99" t="n">
+        <v>4.009918948602387e-20</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.2275512942970578</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>207.1076981485701</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.02233062024174831</v>
+        <v>-0.02233062024174735</v>
       </c>
       <c r="E100" t="n">
+        <v>0.0005877514376879558</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.008087938731029089</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.612910501197533</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2271280714867933</v>
+        <v>0.2271280714867883</v>
       </c>
       <c r="E101" t="n">
+        <v>1.36225870369485e-274</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.009154694452626367</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.4375579053011708</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6687213265176356</v>
+        <v>-0.6687213265175526</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-18952051.10549532</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1610686479.523295</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6687213215896127</v>
+        <v>-0.668721321589555</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-18952.05113977221</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1610686.465098873</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.1002306523311832</v>
+        <v>-0.100230652331176</v>
       </c>
       <c r="E104" t="n">
+        <v>8.832546876037283e-128</v>
+      </c>
+      <c r="F104" t="n">
         <v>-1.147106011576903</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>282.403484009185</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.06604065387008679</v>
+        <v>0.06604065387009792</v>
       </c>
       <c r="E105" t="n">
+        <v>4.310931794493327e-49</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.0004116061351766761</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.02438522553289101</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.06620681127607475</v>
+        <v>0.06620681127607023</v>
       </c>
       <c r="E106" t="n">
+        <v>2.486995403822422e-49</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.001123605212998316</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.1381627560507484</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.0844452537872224</v>
+        <v>-0.08444525378724817</v>
       </c>
       <c r="E107" t="n">
+        <v>2.165388351141519e-81</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.00287772507433859</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.130749481046678</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.04545100203591582</v>
+        <v>-0.04545100203592281</v>
       </c>
       <c r="E108" t="n">
+        <v>9.757868129413987e-25</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.1503775258884922</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>92.71536742778513</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1959947040223222</v>
+        <v>-0.1959947040222987</v>
       </c>
       <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.2835129328147387</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>40.66708517732252</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.01965129536262327</v>
+        <v>-0.0196512953626248</v>
       </c>
       <c r="E110" t="n">
+        <v>1.198159751148096e-05</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.005879052877087959</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2.476845378975669</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.0954743660097004</v>
+        <v>0.09547436600967668</v>
       </c>
       <c r="E111" t="n">
+        <v>7.986748524698945e-101</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.002270417506287374</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.4151560128524665</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.02368553785703216</v>
+        <v>0.02368553785703373</v>
       </c>
       <c r="E112" t="n">
+        <v>1.313853073691017e-07</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.00376210871345035</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.744330812390721</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.1030867598588462</v>
+        <v>-0.103086759858845</v>
       </c>
       <c r="E113" t="n">
+        <v>1.963342535361701e-119</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.1577655177491451</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>33.84558097322523</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.06362936608017665</v>
+        <v>0.06362936608017238</v>
       </c>
       <c r="E114" t="n">
+        <v>1.081250414394209e-45</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.004122841935598191</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.5776832594489572</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.07842697746241051</v>
+        <v>0.07842697746242126</v>
       </c>
       <c r="E115" t="n">
+        <v>2.924835317474742e-70</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.002170131377991988</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.3120146046106954</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2528973394725654</v>
+        <v>0.2528973394726243</v>
       </c>
       <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1903024491375434</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>4.754096143235229</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.00168767103533325</v>
+        <v>0.001687671035333099</v>
       </c>
       <c r="E117" t="n">
+        <v>0.7032190604634101</v>
+      </c>
+      <c r="F117" t="n">
         <v>6.947992512191946e-05</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.306761405772937</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1276783680031603</v>
+        <v>-0.1276783680031498</v>
       </c>
       <c r="E118" t="n">
+        <v>2.266973269839032e-184</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.5413353354252511</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>222.1060593709652</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.004559851344285003</v>
+        <v>-0.004559851344284857</v>
       </c>
       <c r="E119" t="n">
+        <v>0.3030375004289558</v>
+      </c>
+      <c r="F119" t="n">
         <v>-0.001489261703311779</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>100.7730918327296</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.07155777955197774</v>
+        <v>-0.07155777955197742</v>
       </c>
       <c r="E120" t="n">
+        <v>6.91979871632722e-59</v>
+      </c>
+      <c r="F120" t="n">
         <v>-2.88003205438245</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>539.5304380006871</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.0916150096162778</v>
+        <v>0.0916150096162744</v>
       </c>
       <c r="E121" t="n">
+        <v>2.089284417034146e-95</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.02459498292652207</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>22.33947028052184</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.07202903728293002</v>
+        <v>0.07202903728293014</v>
       </c>
       <c r="E122" t="n">
+        <v>1.05665934143377e-59</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.004999946238026048</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.6422688050522017</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.01800605952801565</v>
+        <v>0.01800605952801641</v>
       </c>
       <c r="E123" t="n">
+        <v>4.776715373975588e-05</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.02002591717115849</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>3.57591582253427</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.2069631433994558</v>
+        <v>0.2069631433994403</v>
       </c>
       <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.01275158075225387</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.3143434984666549</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.2900394897857128</v>
+        <v>-0.2900394897856916</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.06957169135943229</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>7.231627368728783</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.1026714062591877</v>
+        <v>0.1026714062591874</v>
       </c>
       <c r="E126" t="n">
+        <v>2.249982468668731e-116</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.02228847750695788</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>1.61682910187307</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.03478448955219614</v>
+        <v>-0.03478448955219446</v>
       </c>
       <c r="E127" t="n">
+        <v>4.012204829938492e-15</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.7086004693148645</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>205.369489117452</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.03824802443593842</v>
+        <v>-0.03824802443593624</v>
       </c>
       <c r="E128" t="n">
+        <v>6.182277366238196e-18</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.1844445805305496</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>126.2839991987252</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.1119381587208909</v>
+        <v>-0.1119381587208825</v>
       </c>
       <c r="E129" t="n">
+        <v>1.476759118159742e-138</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.04996868868056689</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>44.90612618496925</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.01252001224008942</v>
+        <v>0.01252001224009064</v>
       </c>
       <c r="E130" t="n">
+        <v>0.004683388893985781</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.02671876675547359</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>53.9931177054269</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.1268169363033319</v>
+        <v>-0.1268169363033408</v>
       </c>
       <c r="E131" t="n">
+        <v>1.39687594161296e-177</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.01981310368264672</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.91215099404084</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.0783129619183147</v>
+        <v>0.07831296191831251</v>
       </c>
       <c r="E132" t="n">
+        <v>5.318100684163384e-70</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.003628491658252772</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>3.932504697375605</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1137831293682378</v>
+        <v>-0.1137831293682422</v>
       </c>
       <c r="E133" t="n">
+        <v>5.607564805858273e-143</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.4116479795327433</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>127.4822401592911</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.1691812509924628</v>
+        <v>-0.1691812509924552</v>
       </c>
       <c r="E134" t="n">
+        <v>2.58446911263268e-315</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1639547190580279</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>41.25455150280064</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1043358883596424</v>
+        <v>0.1043358883596477</v>
       </c>
       <c r="E135" t="n">
+        <v>4.10878850451545e-120</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.02431765417716333</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>28.68720528454775</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.05660096104076524</v>
+        <v>-0.05660096104077019</v>
       </c>
       <c r="E136" t="n">
+        <v>2.684607031253801e-36</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.007290643592450712</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>33.21432470129898</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1542565192353122</v>
+        <v>0.1542565192352998</v>
       </c>
       <c r="E137" t="n">
+        <v>9.492207661531861e-263</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1079914728507005</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>85.4854590232294</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1572119933223853</v>
+        <v>0.1572119933223798</v>
       </c>
       <c r="E138" t="n">
+        <v>4.934904791200876e-272</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.038939405843491</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>5.73018420950088</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.00275673223109988</v>
+        <v>-0.002756732231099731</v>
       </c>
       <c r="E139" t="n">
+        <v>0.5408879148843783</v>
+      </c>
+      <c r="F139" t="n">
         <v>-0.0002886785703185506</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.29104078637269</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.01683504182914465</v>
+        <v>0.01683504182914523</v>
       </c>
       <c r="E140" t="n">
+        <v>0.0001430644080273744</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.005008284117619751</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>139.1174436208253</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.09651313191159562</v>
+        <v>0.09651313191159108</v>
       </c>
       <c r="E141" t="n">
+        <v>5.355367167652904e-103</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.0999047536353216</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>50.74944697624461</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.06368434917778673</v>
+        <v>0.06368434917779385</v>
       </c>
       <c r="E142" t="n">
+        <v>6.50536008025846e-46</v>
+      </c>
+      <c r="F142" t="n">
         <v>13.98567206355292</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-583.2703205778497</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.000692303242173311</v>
+        <v>0.0006923032421731063</v>
       </c>
       <c r="E143" t="n">
+        <v>0.8779705891417611</v>
+      </c>
+      <c r="F143" t="n">
         <v>0.0001722948221123034</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>13.99019248690564</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.1187590129706687</v>
+        <v>-0.1187590129706673</v>
       </c>
       <c r="E144" t="n">
+        <v>1.049493488054805e-155</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.8127258482175507</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>285.6436582990046</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.1966789203785632</v>
+        <v>-0.1966789203785673</v>
       </c>
       <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.01061987908759109</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.214229102172624</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.03893405412067706</v>
+        <v>0.03893405412067964</v>
       </c>
       <c r="E146" t="n">
+        <v>3.599544252032839e-18</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.005910727090789666</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>13.66740383253947</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.08490786609255556</v>
+        <v>-0.08490786609254797</v>
       </c>
       <c r="E147" t="n">
+        <v>2.887547389379468e-82</v>
+      </c>
+      <c r="F147" t="n">
         <v>-0.8798230240368908</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>213.5901827033156</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.1672246946194987</v>
+        <v>-0.1672246946195218</v>
       </c>
       <c r="E148" t="n">
+        <v>1.277176789170968e-316</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.007833099113916405</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.434492868508034</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.004903737917885148</v>
+        <v>0.0049037379178854</v>
       </c>
       <c r="E149" t="n">
+        <v>0.2746566397657919</v>
+      </c>
+      <c r="F149" t="n">
         <v>0.001742182555546156</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>6.784587914843206</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.02276190940485715</v>
+        <v>-0.02276190940485976</v>
       </c>
       <c r="E150" t="n">
+        <v>3.082644666907952e-07</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.01520988983764752</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>3.108273410495678</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.1836551666592607</v>
+        <v>0.1836551666592645</v>
       </c>
       <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.2500634058933674</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>12.83389584895578</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.1805085277928892</v>
+        <v>-0.1805085277928805</v>
       </c>
       <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
         <v>-278.4137105973731</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>67355.38969978661</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.02341076263378274</v>
+        <v>0.02341076263377904</v>
       </c>
       <c r="E153" t="n">
+        <v>1.281496289611402e-07</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.02621863805493605</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>2.510373866743939</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.04403475782200877</v>
+        <v>-0.04403475782200321</v>
       </c>
       <c r="E154" t="n">
+        <v>2.853139129121483e-23</v>
+      </c>
+      <c r="F154" t="n">
         <v>-2.327439081461117</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>787.4072947470523</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.03260607269891318</v>
+        <v>0.03260607269890838</v>
       </c>
       <c r="E155" t="n">
+        <v>1.882523430641544e-13</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.1933902210288589</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>-5.02468442458256</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.08409342381416263</v>
+        <v>0.08409342381415073</v>
       </c>
       <c r="E156" t="n">
+        <v>1.624322939160542e-80</v>
+      </c>
+      <c r="F156" t="n">
         <v>18.13012651326094</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>708.4145061282072</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1306304469729184</v>
+        <v>-0.1306304469729194</v>
       </c>
       <c r="E157" t="n">
+        <v>1.897702082850579e-192</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.5238300520818253</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>138.0694610621662</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.04734581735498897</v>
+        <v>-0.04734581735498737</v>
       </c>
       <c r="E158" t="n">
+        <v>5.537953754968571e-20</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.002897832237397522</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>1.135255815293633</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.02878062612575845</v>
+        <v>0.02878062612576002</v>
       </c>
       <c r="E159" t="n">
+        <v>1.0797054682167e-08</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.01846366808936978</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>12.24423206646139</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.1445091711596491</v>
+        <v>-0.1445091711596478</v>
       </c>
       <c r="E160" t="n">
+        <v>3.255058186093388e-193</v>
+      </c>
+      <c r="F160" t="n">
         <v>-155.2861508355997</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>47172.00177161309</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.01443468183466883</v>
+        <v>-0.01443468183466826</v>
       </c>
       <c r="E161" t="n">
+        <v>0.00321493721536434</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.09264234789945126</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>230.4396417991528</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.0271679285962116</v>
+        <v>0.02716792859621303</v>
       </c>
       <c r="E162" t="n">
+        <v>4.488389910603491e-09</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.000148104742326378</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.04122009382926448</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.03408034584804933</v>
+        <v>0.03408034584805151</v>
       </c>
       <c r="E163" t="n">
+        <v>1.882282789286875e-13</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.0001189274786913477</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.02909644584812118</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.000830111452046796</v>
+        <v>-0.0008301114520468382</v>
       </c>
       <c r="E164" t="n">
+        <v>0.8578249613117012</v>
+      </c>
+      <c r="F164" t="n">
         <v>-1.874539907763824e-06</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.006974373444240491</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.06497581200844887</v>
+        <v>0.06497581200845119</v>
       </c>
       <c r="E165" t="n">
+        <v>8.939658219604328e-45</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.001213141349767053</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.1497771303822653</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.02160603502125163</v>
+        <v>0.02160603502125459</v>
       </c>
       <c r="E166" t="n">
+        <v>3.106188544659003e-06</v>
+      </c>
+      <c r="F166" t="n">
         <v>5.462389787401352e-06</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.001274772512841548</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.0637679402292107</v>
+        <v>0.06376794022921994</v>
       </c>
       <c r="E167" t="n">
+        <v>3.517649815414668e-43</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.001142240996716226</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.1413356821202827</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.09281694633364043</v>
+        <v>0.09281694633364478</v>
       </c>
       <c r="E168" t="n">
+        <v>1.165529117919995e-89</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001529522415405309</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.09379625360959569</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.09088476075057225</v>
+        <v>0.09088476075057211</v>
       </c>
       <c r="E169" t="n">
+        <v>5.210780175074318e-86</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.001412404838241378</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.09101347582858764</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.07976144623169149</v>
+        <v>0.07976144623169552</v>
       </c>
       <c r="E170" t="n">
+        <v>1.297509829017194e-66</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001422387440309929</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.001679794873560547</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.03713266127628462</v>
+        <v>0.0371326612762811</v>
       </c>
       <c r="E171" t="n">
+        <v>4.729093207927584e-16</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.0004973646470445933</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6812631407940498</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.04546067697916655</v>
+        <v>-0.04546067697916327</v>
       </c>
       <c r="E172" t="n">
+        <v>2.768316305451964e-23</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.0004358340768069539</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.1824040061662642</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.01705632450098965</v>
+        <v>-0.01705632450098778</v>
       </c>
       <c r="E173" t="n">
+        <v>0.0001927776559337954</v>
+      </c>
+      <c r="F173" t="n">
         <v>-2.740892267861685e-05</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.01026793419175815</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.008168721286553575</v>
+        <v>0.008168721286553004</v>
       </c>
       <c r="E174" t="n">
+        <v>0.07418358344228498</v>
+      </c>
+      <c r="F174" t="n">
         <v>6.2423670234193e-05</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9285310405504574</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-0.01349899287678912</v>
+        <v>-0.01349899287678983</v>
       </c>
       <c r="E175" t="n">
+        <v>0.00317222167946966</v>
+      </c>
+      <c r="F175" t="n">
         <v>-0.000118156289597151</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9600479512616915</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.07809624008184068</v>
+        <v>0.07809624008184665</v>
       </c>
       <c r="E176" t="n">
+        <v>1.611731786638856e-65</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0003590435360706555</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.01501632572101752</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.01131114080164328</v>
+        <v>0.01131114080164613</v>
       </c>
       <c r="E177" t="n">
+        <v>0.01364243044077179</v>
+      </c>
+      <c r="F177" t="n">
         <v>0.003077109313748751</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>-0.01747224344063431</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.04384565510721277</v>
+        <v>-0.04384565510721777</v>
       </c>
       <c r="E178" t="n">
+        <v>8.068715633508815e-18</v>
+      </c>
+      <c r="F178" t="n">
         <v>-0.0001352745244834126</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.03736629726105305</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.2372249210530905</v>
+        <v>-0.2372249210531002</v>
       </c>
       <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.00508156131372547</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.7018102929845507</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1133664445188084</v>
+        <v>-0.1133664445188288</v>
       </c>
       <c r="E180" t="n">
+        <v>8.912021063816852e-136</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.003155728855269931</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5726611230945402</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.08266492094858255</v>
+        <v>-0.08266492094858295</v>
       </c>
       <c r="E181" t="n">
+        <v>1.31574325775393e-72</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0006279534530754821</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.0794011716574749</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.1950979618000053</v>
+        <v>-0.1950979618000379</v>
       </c>
       <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.009667655278349804</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.621309042948888</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.01685047746107146</v>
+        <v>-0.01685047746107104</v>
       </c>
       <c r="E183" t="n">
+        <v>0.00024093062271007</v>
+      </c>
+      <c r="F183" t="n">
         <v>-0.0001688104458236823</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.02979250219828109</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.0165515622139034</v>
+        <v>0.01655156221390252</v>
       </c>
       <c r="E184" t="n">
+        <v>0.0003102712029087764</v>
+      </c>
+      <c r="F184" t="n">
         <v>0.004286466303072821</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>-0.2391093824897741</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.328843450565933</v>
+        <v>-0.3288434505659424</v>
       </c>
       <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002316107033880102</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2268561565553474</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.06423407134224367</v>
+        <v>-0.06423407134224547</v>
       </c>
       <c r="E186" t="n">
+        <v>1.693378637321309e-44</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.00204784696591886</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.5604470611712467</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.2049209740533239</v>
+        <v>-0.2049209740533696</v>
       </c>
       <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.01373889980231576</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.357167774414623</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.1300494014214983</v>
+        <v>-0.1300494014214945</v>
       </c>
       <c r="E188" t="n">
+        <v>4.035249925640911e-178</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.00148608377853447</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.196778010206672</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.08302313742282244</v>
+        <v>-0.08302313742283023</v>
       </c>
       <c r="E189" t="n">
+        <v>2.71824225292706e-75</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0004645880237010448</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.1014736192867647</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.008166781027855424</v>
+        <v>0.008166781027855449</v>
       </c>
       <c r="E190" t="n">
+        <v>0.07138918898586979</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0001016634892155967</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.2427849921625095</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.0127675764865343</v>
+        <v>-0.01276757648653534</v>
       </c>
       <c r="E191" t="n">
+        <v>0.004820550666372905</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.0001828457396271388</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.6904280727427096</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1540082946482783</v>
+        <v>-0.1540082946482877</v>
       </c>
       <c r="E192" t="n">
+        <v>2.084076358201992e-256</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.002135643317438562</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.842792760932226</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.04723842691351978</v>
+        <v>-0.04723842691351575</v>
       </c>
       <c r="E193" t="n">
+        <v>1.876243728837726e-25</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.0008410673898087706</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.7046391500969428</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.07322207178981327</v>
+        <v>0.07322207178981618</v>
       </c>
       <c r="E194" t="n">
+        <v>2.066617349114387e-56</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0001969483118089613</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.02171516591034786</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1088866031818523</v>
+        <v>0.1088866031818591</v>
       </c>
       <c r="E195" t="n">
+        <v>7.363564687777315e-123</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0002418960512978193</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01274105931848801</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.03802791392354004</v>
+        <v>0.03802791392354204</v>
       </c>
       <c r="E196" t="n">
+        <v>2.1925304991201e-16</v>
+      </c>
+      <c r="F196" t="n">
         <v>2.428655990416878e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.006105005998968975</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.05649967067146381</v>
+        <v>-0.05649967067146063</v>
       </c>
       <c r="E197" t="n">
+        <v>1.34519816400082e-23</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.006353599876426367</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>6.487344663410257</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.04270484711170055</v>
+        <v>0.04270484711169704</v>
       </c>
       <c r="E198" t="n">
+        <v>5.296514997011361e-15</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.07980191090943183</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>47.86301005693235</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.08954003611189459</v>
+        <v>-0.08954003611189013</v>
       </c>
       <c r="E199" t="n">
+        <v>9.77267276674723e-62</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.3887077727021972</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>214.2061062693284</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.01211576877079877</v>
+        <v>-0.01211576877079881</v>
       </c>
       <c r="E200" t="n">
+        <v>0.0244522123207054</v>
+      </c>
+      <c r="F200" t="n">
         <v>-0.005379903354360831</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>4.009081550973774</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.2166127553068447</v>
+        <v>0.2166127553068428</v>
       </c>
       <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01270625017678797</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.2903413915031079</v>
       </c>
     </row>
